--- a/scripts/report/ratings-v6.xlsx
+++ b/scripts/report/ratings-v6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L172"/>
+  <dimension ref="A1:L180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1192,51 +1192,51 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>e5de31f2-fc40-4062-9135-3aba73149106</t>
+          <t>821c56bf-fd47-45ff-b44d-0496db475dc1</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4DabfkFLBojKxKol8UQf</t>
+          <t>qpFpDzcv49NJ8SLBlrjP</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-02-03T08:34:03.217Z</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>3K5o2d8SL2y20FQOPgFK</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4</v>
-      </c>
+          <t>3JYizQaRcN8ZLh1f6VSM</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1249,42 +1249,46 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>e5de31f2-fc40-4062-9135-3aba73149106</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>qo1Ard5Dt1XhKS3AoctD</t>
+          <t>4DabfkFLBojKxKol8UQf</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>3X40QHC5RPek22w2EFfl</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+          <t>3K5o2d8SL2y20FQOPgFK</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>4</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1292,43 +1296,43 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>gaussian_pro</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>qo1Ard5Dt1XhKS3AoctD</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>mip_splatting</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>second</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>truck</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>UVQaqFSVQtXKKRAN7gGS</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>mini_splatting</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3ciEcSPrUpSHsZBJPXoz</t>
+          <t>3X40QHC5RPek22w2EFfl</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1345,27 +1349,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>opFwoeaHI54U50IjDTWC</t>
+          <t>UVQaqFSVQtXKKRAN7gGS</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1373,14 +1377,10 @@
           <t>mini_splatting</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2025-01-31T15:13:07.415Z</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>4gDtxPLYs4nOdn7jTziL</t>
+          <t>3ciEcSPrUpSHsZBJPXoz</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1392,12 +1392,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1407,32 +1407,32 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3oCaNI7N11UjdwsgwiY6</t>
+          <t>opFwoeaHI54U50IjDTWC</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-01-31T09:47:27.676Z</t>
+          <t>2025-01-31T15:13:07.415Z</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>5YOvj1QsjdsyS5tAc5my</t>
+          <t>4gDtxPLYs4nOdn7jTziL</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1464,31 +1464,31 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>e5de31f2-fc40-4062-9135-3aba73149106</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1njZxACnAGt6T5qLMRlL</t>
+          <t>3oCaNI7N11UjdwsgwiY6</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>eagles</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:47:27.676Z</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>5dXobnKMzfF8oKkUeWCc</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>3</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2</v>
-      </c>
+          <t>5YOvj1QsjdsyS5tAc5my</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1511,36 +1511,36 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
+          <t>e5de31f2-fc40-4062-9135-3aba73149106</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>nYb7T34vMFzwBu21mfi1</t>
+          <t>1njZxACnAGt6T5qLMRlL</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2025-01-31T15:09:23.468Z</t>
-        </is>
-      </c>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>5tYUaG9GWl0PZbKAhvDK</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+          <t>5dXobnKMzfF8oKkUeWCc</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1548,12 +1548,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1563,17 +1563,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>AXCAW0Sac9plQWEH2pi4</t>
+          <t>nYb7T34vMFzwBu21mfi1</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1581,10 +1581,14 @@
           <t>mcmc</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-01-31T15:09:23.468Z</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>63ywzEuTOrpMNBouiJuq</t>
+          <t>5tYUaG9GWl0PZbKAhvDK</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1596,12 +1600,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1611,32 +1615,28 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>lDVDMbkmncL6IXkWjBJe</t>
+          <t>AXCAW0Sac9plQWEH2pi4</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>2025-01-31T15:07:33.167Z</t>
-        </is>
-      </c>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>66GNzoPpeS1ynWpMVI9q</t>
+          <t>63ywzEuTOrpMNBouiJuq</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1663,17 +1663,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>4OAdaBnoabOerIZRSXkP</t>
+          <t>lDVDMbkmncL6IXkWjBJe</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1683,12 +1683,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2025-01-31T09:56:46.441Z</t>
+          <t>2025-01-31T15:07:33.167Z</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>6FiFoUdTOR57B8K1txA0</t>
+          <t>66GNzoPpeS1ynWpMVI9q</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1700,51 +1700,51 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>e5de31f2-fc40-4062-9135-3aba73149106</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3BPbSeLlA1pP4U3oOUfy</t>
+          <t>4OAdaBnoabOerIZRSXkP</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>gaussian_pro</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:56:46.441Z</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>6GXbN8XhMCIk1jY6jIYF</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>4</v>
-      </c>
-      <c r="L26" t="n">
-        <v>4</v>
-      </c>
+          <t>6FiFoUdTOR57B8K1txA0</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1752,47 +1752,51 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+          <t>e5de31f2-fc40-4062-9135-3aba73149106</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Zixm6sJuTnb8M6Q8NCrT</t>
+          <t>3BPbSeLlA1pP4U3oOUfy</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>6RmAFodQsSBY7SHiEFMI</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+          <t>6GXbN8XhMCIk1jY6jIYF</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>4</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1800,47 +1804,43 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>012ff74e-4af5-40e3-ba31-538f3adcc33d</t>
+          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>6thaufUCGqf726635esO</t>
+          <t>Zixm6sJuTnb8M6Q8NCrT</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>2025-01-31T15:16:09.448Z</t>
-        </is>
-      </c>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>6sOSdb5PhhTnctsSxbAQ</t>
+          <t>6RmAFodQsSBY7SHiEFMI</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1852,32 +1852,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>e5de31f2-fc40-4062-9135-3aba73149106</t>
+          <t>012ff74e-4af5-40e3-ba31-538f3adcc33d</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0YwyBZxWsQpHsGv8LS61</t>
+          <t>6thaufUCGqf726635esO</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1885,18 +1885,18 @@
           <t>mini_splatting</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2025-01-31T15:16:09.448Z</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>7KGaWT2rYsGwfUQ9Q5ET</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>3</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2</v>
-      </c>
+          <t>6sOSdb5PhhTnctsSxbAQ</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1904,47 +1904,51 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>e02cbd32-23a2-4b8e-b47f-f94d9ff7f400</t>
+          <t>e5de31f2-fc40-4062-9135-3aba73149106</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>9cfqp5ZF6aZKsFMPR82A</t>
+          <t>0YwyBZxWsQpHsGv8LS61</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>7LO8wIDriXgwcSP8JaR1</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+          <t>7KGaWT2rYsGwfUQ9Q5ET</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1952,12 +1956,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1967,28 +1971,28 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>e02cbd32-23a2-4b8e-b47f-f94d9ff7f400</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>mi9MQgjFbfKcSlMErwnP</t>
+          <t>9cfqp5ZF6aZKsFMPR82A</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>7PnOpEYqn8syG1lMpIoV</t>
+          <t>7LO8wIDriXgwcSP8JaR1</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2005,12 +2009,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2020,31 +2024,27 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>a7037b14-2e6d-4f7d-bac8-ed02d7df5329</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>6VfrcjCKMIYNp2ZeSZNs</t>
+          <t>mi9MQgjFbfKcSlMErwnP</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>default</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>7VIAVgkaOiAjQD5UsCNe</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>2</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
+          <t>7PnOpEYqn8syG1lMpIoV</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2052,47 +2052,51 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>e02cbd32-23a2-4b8e-b47f-f94d9ff7f400</t>
+          <t>a7037b14-2e6d-4f7d-bac8-ed02d7df5329</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3NkAoiyXwCxKI3mx9htk</t>
+          <t>6VfrcjCKMIYNp2ZeSZNs</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>809Nbxo1b6ezGu1cNyBi</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+          <t>7VIAVgkaOiAjQD5UsCNe</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2110,7 +2114,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2120,27 +2124,23 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
+          <t>e02cbd32-23a2-4b8e-b47f-f94d9ff7f400</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>vkzw6nGURAR23rFJzMQ8</t>
+          <t>3NkAoiyXwCxKI3mx9htk</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>2025-01-31T12:40:46.325Z</t>
-        </is>
-      </c>
+          <t>eagles</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>8G3SJCA8c402V3ilcmcb</t>
+          <t>809Nbxo1b6ezGu1cNyBi</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2162,33 +2162,37 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>sAtyji8Dv0Wf1LguUxCd</t>
+          <t>vkzw6nGURAR23rFJzMQ8</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>mip_splatting</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2025-01-31T12:40:46.325Z</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>8OevwkiRuVeizKFMBIFb</t>
+          <t>8G3SJCA8c402V3ilcmcb</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2200,12 +2204,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2215,7 +2219,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2225,18 +2229,18 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>cUBNhZ3TUJP2n8AC01dm</t>
+          <t>sAtyji8Dv0Wf1LguUxCd</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>default</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>8dgrB1lbK05MfOKVYgvq</t>
+          <t>8OevwkiRuVeizKFMBIFb</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2248,22 +2252,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2273,18 +2277,18 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>wWvmTfL2WqIoehOZiqhS</t>
+          <t>cUBNhZ3TUJP2n8AC01dm</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>8njNyFv0W1M9JQGE8Ikj</t>
+          <t>8dgrB1lbK05MfOKVYgvq</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2296,43 +2300,43 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>mip_splatting</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>wWvmTfL2WqIoehOZiqhS</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
           <t>eagles</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>stump</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>mFJ4yoGS3bPoMiYmzpCw</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>mini_splatting</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>8oQyc74Fryn2qseo4fhz</t>
+          <t>8njNyFv0W1M9JQGE8Ikj</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2344,17 +2348,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2364,27 +2368,27 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
+          <t>821c56bf-fd47-45ff-b44d-0496db475dc1</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>UHdpshT8iaRdCf7zXBoO</t>
+          <t>K9H2G1gFUpko3RBZ7lNc</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2025-01-31T15:04:44.829Z</t>
+          <t>2025-02-03T08:34:35.464Z</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>8pCGWuaqmLTDBBrC5jdD</t>
+          <t>8oELPt18M1h4s3ShVSSQ</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2396,43 +2400,43 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>eagles</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>stump</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>mFJ4yoGS3bPoMiYmzpCw</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
           <t>mini_splatting</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>neither</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>room</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>e02cbd32-23a2-4b8e-b47f-f94d9ff7f400</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>rPmdv8ahumezNP4t070S</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>default</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>9OXROZTAxjyQiz8yM8xg</t>
+          <t>8oQyc74Fryn2qseo4fhz</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2444,12 +2448,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2459,32 +2463,32 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
+          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>975raRSXRkIFnpPvU8Cp</t>
+          <t>UHdpshT8iaRdCf7zXBoO</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2025-01-31T12:42:47.713Z</t>
+          <t>2025-01-31T15:04:44.829Z</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>ADXJYqMouGTqcA70iNYs</t>
+          <t>8pCGWuaqmLTDBBrC5jdD</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2496,7 +2500,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2506,37 +2510,33 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>e02cbd32-23a2-4b8e-b47f-f94d9ff7f400</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>ttzg9zc1fkk5DwM1rnuN</t>
+          <t>rPmdv8ahumezNP4t070S</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:43:37.517Z</t>
-        </is>
-      </c>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>AGAGI20u345WQfmhaNRl</t>
+          <t>9OXROZTAxjyQiz8yM8xg</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2548,22 +2548,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2573,22 +2573,22 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>MOythLhT9iAUgjmKYrmP</t>
+          <t>975raRSXRkIFnpPvU8Cp</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2025-01-31T12:41:59.676Z</t>
+          <t>2025-01-31T12:42:47.713Z</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>AQzxNQEhhZpK5YWej4QV</t>
+          <t>ADXJYqMouGTqcA70iNYs</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2600,47 +2600,47 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>bL1qBcfZkIzvghNOYD2P</t>
+          <t>ttzg9zc1fkk5DwM1rnuN</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2025-01-30T16:14:37.201Z</t>
+          <t>2025-01-31T09:43:37.517Z</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>B3YafwHBw7VL18HL2iYc</t>
+          <t>AGAGI20u345WQfmhaNRl</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2657,46 +2657,46 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>19b57dbb-8b65-48f2-a217-3287973988cd</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>4F14IrWf2S6Uwzm7ajl4</t>
+          <t>MOythLhT9iAUgjmKYrmP</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2025-01-31T12:41:59.676Z</t>
+        </is>
+      </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>C49JBc2Um2B1khgodGze</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
-        <v>4</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5</v>
-      </c>
+          <t>AQzxNQEhhZpK5YWej4QV</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2704,47 +2704,47 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>ufs3gdRSkQhtUMtsWnlh</t>
+          <t>bL1qBcfZkIzvghNOYD2P</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>default</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2025-01-31T09:52:11.457Z</t>
+          <t>2025-01-30T16:14:37.201Z</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>CPno5fWGYFtU9RisJACI</t>
+          <t>B3YafwHBw7VL18HL2iYc</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2756,50 +2756,50 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>528f3c4b-7c50-4715-bda7-f85f27317a8d</t>
+          <t>19b57dbb-8b65-48f2-a217-3287973988cd</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>9kLF0x1etY4N8dpAzZ6z</t>
+          <t>4F14IrWf2S6Uwzm7ajl4</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>CmYEQBJa6JCN9S1tNVrj</t>
+          <t>C49JBc2Um2B1khgodGze</t>
         </is>
       </c>
       <c r="K47" t="n">
         <v>4</v>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2823,32 +2823,32 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2kRptcQx5PSo54pmymCi</t>
+          <t>ufs3gdRSkQhtUMtsWnlh</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2025-01-31T12:33:56.038Z</t>
+          <t>2025-01-31T09:52:11.457Z</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>DknlHVOPGc5uhLGw95A1</t>
+          <t>CPno5fWGYFtU9RisJACI</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2880,27 +2880,31 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>528f3c4b-7c50-4715-bda7-f85f27317a8d</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>UHdpshT8iaRdCf7zXBoO</t>
+          <t>9kLF0x1etY4N8dpAzZ6z</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>E4INkNDqMaTCmh6pOidw</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+          <t>CmYEQBJa6JCN9S1tNVrj</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>4</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2913,7 +2917,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2928,12 +2932,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>aAH92wnhxLisnz8xXO3g</t>
+          <t>2kRptcQx5PSo54pmymCi</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2943,12 +2947,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2025-01-30T16:16:48.509Z</t>
+          <t>2025-01-31T12:33:56.038Z</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>EKPZpeEv91YPjcrq7shu</t>
+          <t>DknlHVOPGc5uhLGw95A1</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -2960,7 +2964,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2970,7 +2974,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2980,31 +2984,27 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>e2e13763-bad1-40d3-9c2c-52c7e9d12d9f</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>5C5kkshRarmXiRx92JRx</t>
+          <t>UHdpshT8iaRdCf7zXBoO</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>GB6L3zRFWhcORe0n1R9D</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
-        <v>3</v>
-      </c>
-      <c r="L51" t="n">
-        <v>5</v>
-      </c>
+          <t>E4INkNDqMaTCmh6pOidw</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3012,47 +3012,47 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
+          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>B9UMrXsiS5IovFpsWXsD</t>
+          <t>aAH92wnhxLisnz8xXO3g</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2025-01-31T15:12:16.319Z</t>
+          <t>2025-01-30T16:16:48.509Z</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>GGPlZxShnRWrtghmcTEM</t>
+          <t>EKPZpeEv91YPjcrq7shu</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3084,27 +3084,27 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>821c56bf-fd47-45ff-b44d-0496db475dc1</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>XmPuNNg0GtobFCoFyKgU</t>
+          <t>tuW3rIrhsXQOLUzNRRrT</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2025-01-31T09:52:58.539Z</t>
+          <t>2025-02-03T08:30:55.940Z</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>GVTYYMLNo88AbjeWuJPo</t>
+          <t>FeRCw96Imtfq88k1X2dQ</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3116,17 +3116,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3136,12 +3136,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>e2e13763-bad1-40d3-9c2c-52c7e9d12d9f</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>pWn2laDUFAcAfzPal2kO</t>
+          <t>5C5kkshRarmXiRx92JRx</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3149,18 +3149,18 @@
           <t>mini_splatting</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:55:17.865Z</t>
-        </is>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>GbyaOd4gdyglCa3n88p9</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+          <t>GB6L3zRFWhcORe0n1R9D</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>3</v>
+      </c>
+      <c r="L54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3173,27 +3173,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>012ff74e-4af5-40e3-ba31-538f3adcc33d</t>
+          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>GVcKGek5oi588vXiJqXN</t>
+          <t>B9UMrXsiS5IovFpsWXsD</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3203,12 +3203,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2025-01-31T15:16:49.980Z</t>
+          <t>2025-01-31T15:12:16.319Z</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>GxpUgaS7AWmqFJtf0IMI</t>
+          <t>GGPlZxShnRWrtghmcTEM</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3220,12 +3220,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3235,32 +3235,32 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>qpFpDzcv49NJ8SLBlrjP</t>
+          <t>XmPuNNg0GtobFCoFyKgU</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2025-01-31T12:28:50.363Z</t>
+          <t>2025-01-31T09:52:58.539Z</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>I79EfAiFGEobqaCOOvFW</t>
+          <t>GVTYYMLNo88AbjeWuJPo</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3272,47 +3272,47 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>geo_gaussian</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>truck</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>pWn2laDUFAcAfzPal2kO</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
           <t>mini_splatting</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>stump</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>XwS3dJl68CrfiNvyBxva</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>mcmc</t>
-        </is>
-      </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2025-01-30T13:57:45.995Z</t>
+          <t>2025-01-31T09:55:17.865Z</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Ior7IYUQhlBeOHR8hZ42</t>
+          <t>GbyaOd4gdyglCa3n88p9</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3324,32 +3324,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>012ff74e-4af5-40e3-ba31-538f3adcc33d</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>pJ7XXAHYEM4erqfr0coV</t>
+          <t>GVcKGek5oi588vXiJqXN</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3357,10 +3357,14 @@
           <t>default</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2025-01-31T15:16:49.980Z</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>IwR0vATMP8DwXlUvMCIJ</t>
+          <t>GxpUgaS7AWmqFJtf0IMI</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3382,22 +3386,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+          <t>821c56bf-fd47-45ff-b44d-0496db475dc1</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Qs0rCHvnf9gXyZcivi26</t>
+          <t>wWvmTfL2WqIoehOZiqhS</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3405,10 +3409,14 @@
           <t>eagles</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2025-02-03T08:33:16.597Z</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>J5Qvc9kVQKAQy2hZLiMf</t>
+          <t>HNU0J3hpAefJMrbCoFyv</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3425,7 +3433,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3435,32 +3443,32 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>a90syLsnuohQbwXCwh4l</t>
+          <t>qpFpDzcv49NJ8SLBlrjP</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2025-01-31T09:57:31.511Z</t>
+          <t>2025-01-31T12:28:50.363Z</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>JGQHrJJEr6bvasmZjdJb</t>
+          <t>I79EfAiFGEobqaCOOvFW</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3472,47 +3480,47 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
+          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>RBpxGywp1VWPYDuyRPyU</t>
+          <t>XwS3dJl68CrfiNvyBxva</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2025-01-31T12:44:26.894Z</t>
+          <t>2025-01-30T13:57:45.995Z</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>JqiM3ggMorlJ2MeEZZZs</t>
+          <t>Ior7IYUQhlBeOHR8hZ42</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3524,7 +3532,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3534,37 +3542,33 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>w1ddIWVExVqT9ohhNHvo</t>
+          <t>pJ7XXAHYEM4erqfr0coV</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:46:26.244Z</t>
-        </is>
-      </c>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>JuOLTsSYqelIn0PXKJQg</t>
+          <t>IwR0vATMP8DwXlUvMCIJ</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3576,17 +3580,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3596,27 +3600,23 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
+          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>PLdnjaoFhNA02vbmVPdg</t>
+          <t>Qs0rCHvnf9gXyZcivi26</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>2025-01-31T15:13:50.835Z</t>
-        </is>
-      </c>
+          <t>eagles</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>JvDUkXYLKPOKwILsVFva</t>
+          <t>J5Qvc9kVQKAQy2hZLiMf</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3653,22 +3653,22 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>tuW3rIrhsXQOLUzNRRrT</t>
+          <t>a90syLsnuohQbwXCwh4l</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2025-01-31T09:49:28.988Z</t>
+          <t>2025-01-31T09:57:31.511Z</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>KsgdhyhkxwSjP1O0SoHx</t>
+          <t>JGQHrJJEr6bvasmZjdJb</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3700,31 +3700,31 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>19b57dbb-8b65-48f2-a217-3287973988cd</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>5QLfEePCnZ99zOevCDGL</t>
+          <t>RBpxGywp1VWPYDuyRPyU</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2025-01-31T12:44:26.894Z</t>
+        </is>
+      </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>L9p36CvLC15ACnwDUgx4</t>
-        </is>
-      </c>
-      <c r="K65" t="n">
-        <v>4</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3</v>
-      </c>
+          <t>JqiM3ggMorlJ2MeEZZZs</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3732,47 +3732,47 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>gaussian_pro</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>neither</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>w1ddIWVExVqT9ohhNHvo</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
           <t>eagles</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>second</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>room</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>wbJENHoedilRBPklpO3w</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2025-01-31T09:58:16.600Z</t>
+          <t>2025-01-31T09:46:26.244Z</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>LPsssNaaU9gVn0rBs5SY</t>
+          <t>JuOLTsSYqelIn0PXKJQg</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3794,41 +3794,41 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>e2e13763-bad1-40d3-9c2c-52c7e9d12d9f</t>
+          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1SUpmaSAQQNMdD8FibPB</t>
+          <t>PLdnjaoFhNA02vbmVPdg</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2025-01-31T15:13:50.835Z</t>
+        </is>
+      </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>MDGLCGGLsJZCqma8nnGv</t>
-        </is>
-      </c>
-      <c r="K67" t="n">
-        <v>2</v>
-      </c>
-      <c r="L67" t="n">
-        <v>4</v>
-      </c>
+          <t>JvDUkXYLKPOKwILsVFva</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3856,31 +3856,31 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>19b57dbb-8b65-48f2-a217-3287973988cd</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>29sPSf4gbZUmlbkLou5s</t>
+          <t>tuW3rIrhsXQOLUzNRRrT</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:49:28.988Z</t>
+        </is>
+      </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>MIa0jFtbSCU2El3EFDZu</t>
-        </is>
-      </c>
-      <c r="K68" t="n">
-        <v>3</v>
-      </c>
-      <c r="L68" t="n">
-        <v>4</v>
-      </c>
+          <t>KsgdhyhkxwSjP1O0SoHx</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3888,12 +3888,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3903,35 +3903,35 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>a7037b14-2e6d-4f7d-bac8-ed02d7df5329</t>
+          <t>19b57dbb-8b65-48f2-a217-3287973988cd</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>6gwgrl1Y6W32aOHhxbVS</t>
+          <t>5QLfEePCnZ99zOevCDGL</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>N65inbIwJ0l9IefyIyPz</t>
+          <t>L9p36CvLC15ACnwDUgx4</t>
         </is>
       </c>
       <c r="K69" t="n">
         <v>4</v>
       </c>
       <c r="L69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -3940,7 +3940,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3965,22 +3965,22 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>hvYmnEoeMgb6rH24wXYk</t>
+          <t>wbJENHoedilRBPklpO3w</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>default</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2025-01-31T09:59:41.051Z</t>
+          <t>2025-01-31T09:58:16.600Z</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>NfJFrGfJmueRwu7D09PP</t>
+          <t>LPsssNaaU9gVn0rBs5SY</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -3992,17 +3992,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4012,31 +4012,31 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>012ff74e-4af5-40e3-ba31-538f3adcc33d</t>
+          <t>e2e13763-bad1-40d3-9c2c-52c7e9d12d9f</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Et1BWVIyt0zfBVPGwZsw</t>
+          <t>1SUpmaSAQQNMdD8FibPB</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>2025-01-31T15:18:36.989Z</t>
-        </is>
-      </c>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>OFcy9PbUTGiBe7RrWEhE</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+          <t>MDGLCGGLsJZCqma8nnGv</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>2</v>
+      </c>
+      <c r="L71" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4044,51 +4044,51 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>19b57dbb-8b65-48f2-a217-3287973988cd</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>sGEqUwHWXm4uNV50fIul</t>
+          <t>29sPSf4gbZUmlbkLou5s</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:57:48.285Z</t>
-        </is>
-      </c>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>OHA9zjYaEbs4geRv45bD</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+          <t>MIa0jFtbSCU2El3EFDZu</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>3</v>
+      </c>
+      <c r="L72" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4096,51 +4096,51 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>geo_gaussian</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>stump</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>a7037b14-2e6d-4f7d-bac8-ed02d7df5329</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>6gwgrl1Y6W32aOHhxbVS</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
           <t>mini_splatting</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>stump</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>B1MQNtezV5tvZCdpSP2h</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:54:02.573Z</t>
-        </is>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>OqJ4CQthxNp8wzbvdWLk</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+          <t>N65inbIwJ0l9IefyIyPz</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>4</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4148,43 +4148,47 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>mip_splatting</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>hvYmnEoeMgb6rH24wXYk</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
           <t>mcmc</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>second</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>stump</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>fz5mo0LrUA5WkIPtYMAv</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:59:41.051Z</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>PZDjhro6FOr8a2KdCEi2</t>
+          <t>NfJFrGfJmueRwu7D09PP</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
@@ -4196,43 +4200,47 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>gaussian_pro</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>neither</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>012ff74e-4af5-40e3-ba31-538f3adcc33d</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Et1BWVIyt0zfBVPGwZsw</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
           <t>mip_splatting</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>second</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>stump</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>e02cbd32-23a2-4b8e-b47f-f94d9ff7f400</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>x4yFyy0x8GgtgYalqlpa</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2025-01-31T15:18:36.989Z</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>PsvvzMctPjauFXmXSIlz</t>
+          <t>OFcy9PbUTGiBe7RrWEhE</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -4254,7 +4262,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4264,23 +4272,27 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>e02cbd32-23a2-4b8e-b47f-f94d9ff7f400</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>I9Wx3YAx59AhIH6G9r3n</t>
+          <t>sGEqUwHWXm4uNV50fIul</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr"/>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:57:48.285Z</t>
+        </is>
+      </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Q8zhTJPLyjzuvRggTRYd</t>
+          <t>OHA9zjYaEbs4geRv45bD</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
@@ -4292,7 +4304,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4302,37 +4314,37 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
+          <t>821c56bf-fd47-45ff-b44d-0496db475dc1</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>CIxZgzkOUIedPVRaGGBW</t>
+          <t>GuYpzJlvx3OCimBo84uN</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2025-01-31T12:46:41.202Z</t>
+          <t>2025-02-03T08:29:24.268Z</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>QEoeTxshgCiFgS7OJRO3</t>
+          <t>Of1HOxlwtfbzIshxLFQG</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -4344,51 +4356,51 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>a7037b14-2e6d-4f7d-bac8-ed02d7df5329</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0uSshiYpzXHdIn1okZsk</t>
+          <t>B1MQNtezV5tvZCdpSP2h</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr"/>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:54:02.573Z</t>
+        </is>
+      </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>QIHJ1odwoylsYRzFbHo7</t>
-        </is>
-      </c>
-      <c r="K78" t="n">
-        <v>4</v>
-      </c>
-      <c r="L78" t="n">
-        <v>4</v>
-      </c>
+          <t>OqJ4CQthxNp8wzbvdWLk</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4396,7 +4408,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4406,7 +4418,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4416,12 +4428,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>sGEqUwHWXm4uNV50fIul</t>
+          <t>fz5mo0LrUA5WkIPtYMAv</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4432,7 +4444,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>RjOK44pFGaCizACdnS9R</t>
+          <t>PZDjhro6FOr8a2KdCEi2</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4449,12 +4461,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4464,27 +4476,23 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
+          <t>e02cbd32-23a2-4b8e-b47f-f94d9ff7f400</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>dT956OxADlFt2Dnn2oOz</t>
+          <t>x4yFyy0x8GgtgYalqlpa</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>2025-01-31T12:43:09.125Z</t>
-        </is>
-      </c>
+          <t>eagles</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>SGtvGabl136E7utwB2Eh</t>
+          <t>PsvvzMctPjauFXmXSIlz</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4496,12 +4504,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4511,28 +4519,28 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+          <t>e02cbd32-23a2-4b8e-b47f-f94d9ff7f400</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>TNk0CWB0Jr5a4YHBG2P9</t>
+          <t>I9Wx3YAx59AhIH6G9r3n</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>T9mFuJqk6OxTyXzK4NLg</t>
+          <t>Q8zhTJPLyjzuvRggTRYd</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -4549,42 +4557,42 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>M5MsCkIVVjZ2dVNaDkmv</t>
+          <t>CIxZgzkOUIedPVRaGGBW</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>default</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2025-01-31T09:50:01.279Z</t>
+          <t>2025-01-31T12:46:41.202Z</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>TQOcpvmdxaIHfOOt7hp4</t>
+          <t>QEoeTxshgCiFgS7OJRO3</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -4596,47 +4604,51 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>a7037b14-2e6d-4f7d-bac8-ed02d7df5329</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>UCdEcmpUKf0Z5HK1x6hH</t>
+          <t>0uSshiYpzXHdIn1okZsk</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>UqsoROWccuSKsNl30pNK</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+          <t>QIHJ1odwoylsYRzFbHo7</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>4</v>
+      </c>
+      <c r="L83" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4644,17 +4656,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4664,27 +4676,23 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>GuYpzJlvx3OCimBo84uN</t>
+          <t>sGEqUwHWXm4uNV50fIul</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:53:21.543Z</t>
-        </is>
-      </c>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>VGKaK4RPV0C8gKBUgoOT</t>
+          <t>RjOK44pFGaCizACdnS9R</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -4701,17 +4709,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4721,22 +4729,22 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>STM4xI9X7gXL7C5l0YGV</t>
+          <t>dT956OxADlFt2Dnn2oOz</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2025-01-31T12:33:24.963Z</t>
+          <t>2025-01-31T12:43:09.125Z</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>VHfHq37y3Tju5TW9J4U1</t>
+          <t>SGtvGabl136E7utwB2Eh</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -4748,7 +4756,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4758,41 +4766,37 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>e2e13763-bad1-40d3-9c2c-52c7e9d12d9f</t>
+          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2kRptcQx5PSo54pmymCi</t>
+          <t>TNk0CWB0Jr5a4YHBG2P9</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>default</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>VMsKz72kCWNGJP6ZGlZ5</t>
-        </is>
-      </c>
-      <c r="K86" t="n">
-        <v>5</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3</v>
-      </c>
+          <t>T9mFuJqk6OxTyXzK4NLg</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4800,12 +4804,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4815,28 +4819,32 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>xokGmEGRC6jlGHRcOllW</t>
+          <t>M5MsCkIVVjZ2dVNaDkmv</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr"/>
+          <t>mip_splatting</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:50:01.279Z</t>
+        </is>
+      </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>VPYXgRxCcZa0wURBj08l</t>
+          <t>TQOcpvmdxaIHfOOt7hp4</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -4848,12 +4856,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4868,31 +4876,27 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>e2e13763-bad1-40d3-9c2c-52c7e9d12d9f</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0Qbwb7Lis9pOLUVOSIrO</t>
+          <t>UCdEcmpUKf0Z5HK1x6hH</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>default</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>VaTsU5q2TjosMgFloSxj</t>
-        </is>
-      </c>
-      <c r="K88" t="n">
-        <v>4</v>
-      </c>
-      <c r="L88" t="n">
-        <v>3</v>
-      </c>
+          <t>UqsoROWccuSKsNl30pNK</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4900,12 +4904,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4925,22 +4929,22 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>m0v4VaANDWXTZ9X7dxgd</t>
+          <t>GuYpzJlvx3OCimBo84uN</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2025-01-31T09:59:11.570Z</t>
+          <t>2025-01-31T09:53:21.543Z</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Vp3xiqqU4jzeVVQxyZzq</t>
+          <t>VGKaK4RPV0C8gKBUgoOT</t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -4952,12 +4956,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4967,17 +4971,17 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>XK2aVsag06EhMrj9f7dh</t>
+          <t>STM4xI9X7gXL7C5l0YGV</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4985,10 +4989,14 @@
           <t>default</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>2025-01-31T12:33:24.963Z</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Vrl9XaRjm2Iw1E69BiE6</t>
+          <t>VHfHq37y3Tju5TW9J4U1</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -5000,7 +5008,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5020,31 +5028,31 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
+          <t>e2e13763-bad1-40d3-9c2c-52c7e9d12d9f</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>R22w8dILcWE83JYIY0lQ</t>
+          <t>2kRptcQx5PSo54pmymCi</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>2025-01-31T12:45:19.436Z</t>
-        </is>
-      </c>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>WHe9UKtkixvFCaMAHYHN</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+          <t>VMsKz72kCWNGJP6ZGlZ5</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>5</v>
+      </c>
+      <c r="L91" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5052,7 +5060,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5067,17 +5075,17 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
+          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>zETM3glnKwWMSjAaJwb4</t>
+          <t>xokGmEGRC6jlGHRcOllW</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -5085,14 +5093,10 @@
           <t>mcmc</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>2025-01-31T12:46:55.280Z</t>
-        </is>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>WNkHcPUYRRfFRLLPsZyI</t>
+          <t>VPYXgRxCcZa0wURBj08l</t>
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
@@ -5104,7 +5108,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -5114,7 +5118,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5124,12 +5128,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
+          <t>e2e13763-bad1-40d3-9c2c-52c7e9d12d9f</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>X48v4DMV4STeQD9oCk2q</t>
+          <t>0Qbwb7Lis9pOLUVOSIrO</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -5137,18 +5141,18 @@
           <t>mini_splatting</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>2025-01-31T12:45:04.578Z</t>
-        </is>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>WnMWCWjU2onl2bcOMO8e</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+          <t>VaTsU5q2TjosMgFloSxj</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>4</v>
+      </c>
+      <c r="L93" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5166,12 +5170,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5181,7 +5185,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>w1ddIWVExVqT9ohhNHvo</t>
+          <t>m0v4VaANDWXTZ9X7dxgd</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -5191,12 +5195,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2025-01-31T09:44:29.384Z</t>
+          <t>2025-01-31T09:59:11.570Z</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>X0tJrGBXDnGFphrRukzg</t>
+          <t>Vp3xiqqU4jzeVVQxyZzq</t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
@@ -5208,12 +5212,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -5223,17 +5227,17 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>012ff74e-4af5-40e3-ba31-538f3adcc33d</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Z8DyrLynwDAfyzY4ZPmX</t>
+          <t>XK2aVsag06EhMrj9f7dh</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -5241,14 +5245,10 @@
           <t>default</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>2025-01-31T15:17:26.507Z</t>
-        </is>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>XBYBEL1wDglcX6QXAyG3</t>
+          <t>Vrl9XaRjm2Iw1E69BiE6</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -5260,17 +5260,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5280,12 +5280,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>mi9MQgjFbfKcSlMErwnP</t>
+          <t>R22w8dILcWE83JYIY0lQ</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5293,10 +5293,14 @@
           <t>default</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2025-01-31T12:45:19.436Z</t>
+        </is>
+      </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>YJt1VJjRkdQMtpwq8tFp</t>
+          <t>WHe9UKtkixvFCaMAHYHN</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
@@ -5308,7 +5312,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5318,37 +5322,37 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>LTxhe1fwno4t5rxRTYH7</t>
+          <t>zETM3glnKwWMSjAaJwb4</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2025-01-31T09:45:16.494Z</t>
+          <t>2025-01-31T12:46:55.280Z</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>YhRyngURcHmDL4rqpWmn</t>
+          <t>WNkHcPUYRRfFRLLPsZyI</t>
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
@@ -5360,32 +5364,32 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>19b57dbb-8b65-48f2-a217-3287973988cd</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>4o2MS9PcRonKh1JZMUXr</t>
+          <t>X48v4DMV4STeQD9oCk2q</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5393,18 +5397,18 @@
           <t>mini_splatting</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>2025-01-31T12:45:04.578Z</t>
+        </is>
+      </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Z5fokkWGJnEX02EjVlLC</t>
-        </is>
-      </c>
-      <c r="K98" t="n">
-        <v>3</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2</v>
-      </c>
+          <t>WnMWCWjU2onl2bcOMO8e</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5412,43 +5416,47 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
+          <t>gaussian_pro</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>neither</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>w1ddIWVExVqT9ohhNHvo</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
           <t>eagles</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>second</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>truck</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>450cd38d-27d8-4b1e-b397-f6aa0769f389</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>sAtyji8Dv0Wf1LguUxCd</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:44:29.384Z</t>
+        </is>
+      </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Z5y7LNmDfXQv9nWjzq1u</t>
+          <t>X0tJrGBXDnGFphrRukzg</t>
         </is>
       </c>
       <c r="K99" t="inlineStr"/>
@@ -5460,12 +5468,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5475,17 +5483,17 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>012ff74e-4af5-40e3-ba31-538f3adcc33d</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>oEyDI8Mvie1PcI2HyLOt</t>
+          <t>Z8DyrLynwDAfyzY4ZPmX</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5493,10 +5501,14 @@
           <t>default</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2025-01-31T15:17:26.507Z</t>
+        </is>
+      </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Zi8JXUen844Dz6544Ola</t>
+          <t>XBYBEL1wDglcX6QXAyG3</t>
         </is>
       </c>
       <c r="K100" t="inlineStr"/>
@@ -5508,7 +5520,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5523,28 +5535,28 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>YtU5Aq9vtx118e7rZwZn</t>
+          <t>mi9MQgjFbfKcSlMErwnP</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>default</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>aXvfi92LZwKNnZgMsEA0</t>
+          <t>YJt1VJjRkdQMtpwq8tFp</t>
         </is>
       </c>
       <c r="K101" t="inlineStr"/>
@@ -5556,7 +5568,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5571,32 +5583,32 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>WiH2huzz3SfxFCPm3hal</t>
+          <t>LTxhe1fwno4t5rxRTYH7</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>default</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2025-01-31T15:13:36.878Z</t>
+          <t>2025-01-31T09:45:16.494Z</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>alqBoo262NCB6T30eM2n</t>
+          <t>YhRyngURcHmDL4rqpWmn</t>
         </is>
       </c>
       <c r="K102" t="inlineStr"/>
@@ -5608,51 +5620,51 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
+          <t>19b57dbb-8b65-48f2-a217-3287973988cd</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>XmPuNNg0GtobFCoFyKgU</t>
+          <t>4o2MS9PcRonKh1JZMUXr</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>2025-01-31T15:08:17.562Z</t>
-        </is>
-      </c>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t>bBdLf1UHlFdCkg4oKc22</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+          <t>Z5fokkWGJnEX02EjVlLC</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>3</v>
+      </c>
+      <c r="L103" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5660,7 +5672,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5670,37 +5682,33 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
+          <t>450cd38d-27d8-4b1e-b397-f6aa0769f389</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>o285r0HU6gaGJge3A5Ll</t>
+          <t>sAtyji8Dv0Wf1LguUxCd</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>2025-01-31T15:14:58.999Z</t>
-        </is>
-      </c>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>bGqywopdEwfkNUvhzwTB</t>
+          <t>Z5y7LNmDfXQv9nWjzq1u</t>
         </is>
       </c>
       <c r="K104" t="inlineStr"/>
@@ -5712,47 +5720,43 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>TV5zTfVsxupQ20rIqyPC</t>
+          <t>oEyDI8Mvie1PcI2HyLOt</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>2025-01-30T13:59:35.905Z</t>
-        </is>
-      </c>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>boQKPEIzXN4d8lPs5gFF</t>
+          <t>Zi8JXUen844Dz6544Ola</t>
         </is>
       </c>
       <c r="K105" t="inlineStr"/>
@@ -5764,12 +5768,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -5784,12 +5788,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>xqxTCtx1hcwpQzoIq86W</t>
+          <t>YtU5Aq9vtx118e7rZwZn</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5797,14 +5801,10 @@
           <t>mcmc</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:55:47.548Z</t>
-        </is>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
-          <t>bqIgqD5QIv4xdXfDEBIa</t>
+          <t>aXvfi92LZwKNnZgMsEA0</t>
         </is>
       </c>
       <c r="K106" t="inlineStr"/>
@@ -5816,7 +5816,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5831,28 +5831,32 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>mb7aK1CLUKuG5u2YQRpW</t>
+          <t>WiH2huzz3SfxFCPm3hal</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr"/>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>2025-01-31T15:13:36.878Z</t>
+        </is>
+      </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>c91Uiu9itBbUfL0YWvdl</t>
+          <t>alqBoo262NCB6T30eM2n</t>
         </is>
       </c>
       <c r="K107" t="inlineStr"/>
@@ -5864,7 +5868,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5874,7 +5878,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5884,31 +5888,31 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>528f3c4b-7c50-4715-bda7-f85f27317a8d</t>
+          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>7m6zXp8WYfmoogjZMNaC</t>
+          <t>XmPuNNg0GtobFCoFyKgU</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr"/>
+          <t>mip_splatting</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>2025-01-31T15:08:17.562Z</t>
+        </is>
+      </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>cIRgxgVECKpbeGR9s0xC</t>
-        </is>
-      </c>
-      <c r="K108" t="n">
-        <v>3</v>
-      </c>
-      <c r="L108" t="n">
-        <v>4</v>
-      </c>
+          <t>bBdLf1UHlFdCkg4oKc22</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5921,17 +5925,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5941,7 +5945,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Fh8Y4vSjyrit3fc7rnEJ</t>
+          <t>o285r0HU6gaGJge3A5Ll</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5951,12 +5955,12 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2025-01-31T14:59:23.697Z</t>
+          <t>2025-01-31T15:14:58.999Z</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>cdjpTHILRu4xwQBxrOJA</t>
+          <t>bGqywopdEwfkNUvhzwTB</t>
         </is>
       </c>
       <c r="K109" t="inlineStr"/>
@@ -5973,42 +5977,42 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
+          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>vrZW6b8SD7cvJxYhlyHe</t>
+          <t>TV5zTfVsxupQ20rIqyPC</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2025-01-31T15:11:08.588Z</t>
+          <t>2025-01-30T13:59:35.905Z</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>cfR3EB2BHQ0QeeZOXfl3</t>
+          <t>boQKPEIzXN4d8lPs5gFF</t>
         </is>
       </c>
       <c r="K110" t="inlineStr"/>
@@ -6020,43 +6024,47 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>f7c2df7a-579c-4030-a38b-8e21d19963f5</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>I9Wx3YAx59AhIH6G9r3n</t>
+          <t>xqxTCtx1hcwpQzoIq86W</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr"/>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:55:47.548Z</t>
+        </is>
+      </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>cjXFWohRNARQaXACXrFU</t>
+          <t>bqIgqD5QIv4xdXfDEBIa</t>
         </is>
       </c>
       <c r="K111" t="inlineStr"/>
@@ -6068,7 +6076,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -6078,33 +6086,33 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>ea53b8e7-e18d-4eca-b3ab-55fb01790c29</t>
+          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>oAWxAZIYf3zMUspUMSPH</t>
+          <t>mb7aK1CLUKuG5u2YQRpW</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>default</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>d9OMRIKcmSQxjecG7ojL</t>
+          <t>c91Uiu9itBbUfL0YWvdl</t>
         </is>
       </c>
       <c r="K112" t="inlineStr"/>
@@ -6116,12 +6124,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -6131,36 +6139,36 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
+          <t>528f3c4b-7c50-4715-bda7-f85f27317a8d</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>bh6Ur0uYdd0GghewF1lR</t>
+          <t>7m6zXp8WYfmoogjZMNaC</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>2025-01-30T16:17:27.975Z</t>
-        </is>
-      </c>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
-          <t>dD7IlpoBSAoVDUuRnrFM</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+          <t>cIRgxgVECKpbeGR9s0xC</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>3</v>
+      </c>
+      <c r="L113" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6168,7 +6176,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -6178,12 +6186,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6193,22 +6201,22 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>UHdpshT8iaRdCf7zXBoO</t>
+          <t>Fh8Y4vSjyrit3fc7rnEJ</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2025-01-31T15:07:12.196Z</t>
+          <t>2025-01-31T14:59:23.697Z</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>dZuQypYIPrPLiUlxvOvO</t>
+          <t>cdjpTHILRu4xwQBxrOJA</t>
         </is>
       </c>
       <c r="K114" t="inlineStr"/>
@@ -6220,12 +6228,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -6235,32 +6243,32 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>LGt5Gax4C39pll46ZRfk</t>
+          <t>vrZW6b8SD7cvJxYhlyHe</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>default</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2025-01-31T09:53:48.795Z</t>
+          <t>2025-01-31T15:11:08.588Z</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>ePDd94Q21qfpyDCNvo78</t>
+          <t>cfR3EB2BHQ0QeeZOXfl3</t>
         </is>
       </c>
       <c r="K115" t="inlineStr"/>
@@ -6277,7 +6285,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -6287,28 +6295,28 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>f7c2df7a-579c-4030-a38b-8e21d19963f5</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>U9OwhmTNTnCiO67RYSkC</t>
+          <t>I9Wx3YAx59AhIH6G9r3n</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>eRpXCEmoMZW6kPYJJ0Th</t>
+          <t>cjXFWohRNARQaXACXrFU</t>
         </is>
       </c>
       <c r="K116" t="inlineStr"/>
@@ -6320,17 +6328,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6340,27 +6348,23 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
+          <t>ea53b8e7-e18d-4eca-b3ab-55fb01790c29</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>wNmqgdMKte48MR0lSs8V</t>
+          <t>oAWxAZIYf3zMUspUMSPH</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>2025-01-31T15:05:53.894Z</t>
-        </is>
-      </c>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>ecP4Wg9z7SpZjDuEylg2</t>
+          <t>d9OMRIKcmSQxjecG7ojL</t>
         </is>
       </c>
       <c r="K117" t="inlineStr"/>
@@ -6372,47 +6376,47 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
+          <t>gaussian_pro</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>truck</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>bh6Ur0uYdd0GghewF1lR</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
           <t>mip_splatting</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>stump</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>opFwoeaHI54U50IjDTWC</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>mini_splatting</t>
-        </is>
-      </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2025-01-31T09:45:46.529Z</t>
+          <t>2025-01-30T16:17:27.975Z</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>fqhSNDbndwVTL3dDaFIt</t>
+          <t>dD7IlpoBSAoVDUuRnrFM</t>
         </is>
       </c>
       <c r="K118" t="inlineStr"/>
@@ -6424,7 +6428,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6444,27 +6448,27 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>012ff74e-4af5-40e3-ba31-538f3adcc33d</t>
+          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>VaeIQFPXa7qr2TO0regy</t>
+          <t>UHdpshT8iaRdCf7zXBoO</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2025-01-31T15:19:30.296Z</t>
+          <t>2025-01-31T15:07:12.196Z</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>g1LWrUmtuPV9agUIG3wd</t>
+          <t>dZuQypYIPrPLiUlxvOvO</t>
         </is>
       </c>
       <c r="K119" t="inlineStr"/>
@@ -6481,38 +6485,42 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>450cd38d-27d8-4b1e-b397-f6aa0769f389</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>oAdeIrlRkXuAXMcVVrvO</t>
+          <t>LGt5Gax4C39pll46ZRfk</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr"/>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:53:48.795Z</t>
+        </is>
+      </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>hGMv67pm3H96JuSsNLvV</t>
+          <t>ePDd94Q21qfpyDCNvo78</t>
         </is>
       </c>
       <c r="K120" t="inlineStr"/>
@@ -6524,47 +6532,43 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>7oGbAIfCS0WsrzCTv0Ut</t>
+          <t>U9OwhmTNTnCiO67RYSkC</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>2025-01-30T13:56:17.290Z</t>
-        </is>
-      </c>
+          <t>mip_splatting</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>i0h3bc9nc9sTo9g09Oy0</t>
+          <t>eRpXCEmoMZW6kPYJJ0Th</t>
         </is>
       </c>
       <c r="K121" t="inlineStr"/>
@@ -6576,12 +6580,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -6591,7 +6595,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6601,7 +6605,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>BusmHleQqdOFGq4Ie8ru</t>
+          <t>wNmqgdMKte48MR0lSs8V</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6611,12 +6615,12 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2025-01-31T14:58:08.170Z</t>
+          <t>2025-01-31T15:05:53.894Z</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>iJHL0IEwKh2Q894alpml</t>
+          <t>ecP4Wg9z7SpZjDuEylg2</t>
         </is>
       </c>
       <c r="K122" t="inlineStr"/>
@@ -6633,12 +6637,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6653,22 +6657,22 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>QEBs5TlLCAooCeKAZbVP</t>
+          <t>opFwoeaHI54U50IjDTWC</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2025-01-31T09:47:54.457Z</t>
+          <t>2025-01-31T09:45:46.529Z</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>jWLNppzMVCRzzQeNb2rm</t>
+          <t>fqhSNDbndwVTL3dDaFIt</t>
         </is>
       </c>
       <c r="K123" t="inlineStr"/>
@@ -6680,7 +6684,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6695,28 +6699,32 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>f7c2df7a-579c-4030-a38b-8e21d19963f5</t>
+          <t>821c56bf-fd47-45ff-b44d-0496db475dc1</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>zYG7EHc4pWZ74BzujAld</t>
+          <t>sou4U0fVFPGiVeSZD9nv</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr"/>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>2025-02-03T08:34:58.837Z</t>
+        </is>
+      </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>jyIT0QGt8WAsm1R1mZOY</t>
+          <t>fzLWtEPBl0A3mNiOkdZU</t>
         </is>
       </c>
       <c r="K124" t="inlineStr"/>
@@ -6728,7 +6736,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6738,22 +6746,22 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
+          <t>012ff74e-4af5-40e3-ba31-538f3adcc33d</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>V0ZqSpgqaPINac5iHamt</t>
+          <t>VaeIQFPXa7qr2TO0regy</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6763,12 +6771,12 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2025-01-31T12:41:09.054Z</t>
+          <t>2025-01-31T15:19:30.296Z</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>kW2zvt1cQtDQBUk3BYxe</t>
+          <t>g1LWrUmtuPV9agUIG3wd</t>
         </is>
       </c>
       <c r="K125" t="inlineStr"/>
@@ -6780,12 +6788,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -6800,27 +6808,27 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
+          <t>821c56bf-fd47-45ff-b44d-0496db475dc1</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>t7wCa3WvfTddEoNPAtgp</t>
+          <t>VDf0RnWWr4qfitW1DG8Y</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>default</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2025-01-30T13:54:20.442Z</t>
+          <t>2025-02-03T08:31:16.022Z</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>kghziYgKQHhNrHI29txZ</t>
+          <t>g7b97ge7k04WijebGDFn</t>
         </is>
       </c>
       <c r="K126" t="inlineStr"/>
@@ -6837,42 +6845,38 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
+          <t>450cd38d-27d8-4b1e-b397-f6aa0769f389</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>XQC6q8CuG2Ce3rRcQbPI</t>
+          <t>oAdeIrlRkXuAXMcVVrvO</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>2025-01-31T12:45:50.020Z</t>
-        </is>
-      </c>
+          <t>gaussian_pro</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>kigCc7yhyTjbKzmrclOU</t>
+          <t>hGMv67pm3H96JuSsNLvV</t>
         </is>
       </c>
       <c r="K127" t="inlineStr"/>
@@ -6884,17 +6888,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -6904,27 +6908,27 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>mwonPR4rJcKlHq6K1URw</t>
+          <t>7oGbAIfCS0WsrzCTv0Ut</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2025-01-31T09:51:28.011Z</t>
+          <t>2025-01-30T13:56:17.290Z</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>kyDGjSrKtuB4seZiz5fp</t>
+          <t>i0h3bc9nc9sTo9g09Oy0</t>
         </is>
       </c>
       <c r="K128" t="inlineStr"/>
@@ -6936,12 +6940,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -6951,17 +6955,17 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>821c56bf-fd47-45ff-b44d-0496db475dc1</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>VaeIQFPXa7qr2TO0regy</t>
+          <t>heBGfGe85HB9wSV36ywa</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6969,10 +6973,14 @@
           <t>default</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr"/>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>2025-02-03T08:31:51.849Z</t>
+        </is>
+      </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>lPpSYvRzEPrmXokxdewG</t>
+          <t>i7jeguSMydiqZE635InE</t>
         </is>
       </c>
       <c r="K129" t="inlineStr"/>
@@ -6984,22 +6992,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7009,7 +7017,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>wNmqgdMKte48MR0lSs8V</t>
+          <t>BusmHleQqdOFGq4Ie8ru</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -7019,12 +7027,12 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2025-01-31T15:03:28.982Z</t>
+          <t>2025-01-31T14:58:08.170Z</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>lUmveekfFelRmLeYuI8g</t>
+          <t>iJHL0IEwKh2Q894alpml</t>
         </is>
       </c>
       <c r="K130" t="inlineStr"/>
@@ -7036,7 +7044,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -7046,37 +7054,37 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>jZFKuWgNQEGaT1W2xXVd</t>
+          <t>QEBs5TlLCAooCeKAZbVP</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>default</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2025-01-30T13:53:26.466Z</t>
+          <t>2025-01-31T09:47:54.457Z</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>lmdDo4sVVlQNfMLaT1Jw</t>
+          <t>jWLNppzMVCRzzQeNb2rm</t>
         </is>
       </c>
       <c r="K131" t="inlineStr"/>
@@ -7088,43 +7096,43 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>50f7c289-6a7d-4400-9f4f-32c59562faec</t>
+          <t>f7c2df7a-579c-4030-a38b-8e21d19963f5</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>wNmqgdMKte48MR0lSs8V</t>
+          <t>zYG7EHc4pWZ74BzujAld</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
-          <t>m4FswNEJNTsojZRsHyXo</t>
+          <t>jyIT0QGt8WAsm1R1mZOY</t>
         </is>
       </c>
       <c r="K132" t="inlineStr"/>
@@ -7136,17 +7144,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7156,12 +7164,12 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>012ff74e-4af5-40e3-ba31-538f3adcc33d</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>QEBs5TlLCAooCeKAZbVP</t>
+          <t>V0ZqSpgqaPINac5iHamt</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -7171,12 +7179,12 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2025-01-31T15:17:40.572Z</t>
+          <t>2025-01-31T12:41:09.054Z</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>mMOx3PLbU63MKtpWN57c</t>
+          <t>kW2zvt1cQtDQBUk3BYxe</t>
         </is>
       </c>
       <c r="K133" t="inlineStr"/>
@@ -7193,12 +7201,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7208,12 +7216,12 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
+          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>X54BtfxmEU4PEj2pXfs0</t>
+          <t>t7wCa3WvfTddEoNPAtgp</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -7223,12 +7231,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2025-01-31T12:35:04.502Z</t>
+          <t>2025-01-30T13:54:20.442Z</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>mw2ZckSiK5c2SIzvM3sB</t>
+          <t>kghziYgKQHhNrHI29txZ</t>
         </is>
       </c>
       <c r="K134" t="inlineStr"/>
@@ -7240,12 +7248,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -7255,17 +7263,17 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>TGxXV9xxnEF2clXJkUH1</t>
+          <t>XQC6q8CuG2Ce3rRcQbPI</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -7275,12 +7283,12 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2025-01-31T15:14:13.695Z</t>
+          <t>2025-01-31T12:45:50.020Z</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>nHQ2iRV7d4qUhv7bx6kk</t>
+          <t>kigCc7yhyTjbKzmrclOU</t>
         </is>
       </c>
       <c r="K135" t="inlineStr"/>
@@ -7297,7 +7305,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -7307,28 +7315,32 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>450cd38d-27d8-4b1e-b397-f6aa0769f389</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>0bIsWmiOeRXEyKdMrHB1</t>
+          <t>mwonPR4rJcKlHq6K1URw</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr"/>
+          <t>gaussian_pro</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:51:28.011Z</t>
+        </is>
+      </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>nadf2hKw5G0sXVhtRBXb</t>
+          <t>kyDGjSrKtuB4seZiz5fp</t>
         </is>
       </c>
       <c r="K136" t="inlineStr"/>
@@ -7340,22 +7352,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7365,18 +7377,18 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Yf4W2hBsBJLunivtbe0p</t>
+          <t>VaeIQFPXa7qr2TO0regy</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>default</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
         <is>
-          <t>nfpbc9bLg6eG4214OzKL</t>
+          <t>lPpSYvRzEPrmXokxdewG</t>
         </is>
       </c>
       <c r="K137" t="inlineStr"/>
@@ -7393,17 +7405,17 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7413,22 +7425,22 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>vrZW6b8SD7cvJxYhlyHe</t>
+          <t>wNmqgdMKte48MR0lSs8V</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2025-01-31T15:06:14.299Z</t>
+          <t>2025-01-31T15:03:28.982Z</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>nk7PCAyg808iJwqIN0kU</t>
+          <t>lUmveekfFelRmLeYuI8g</t>
         </is>
       </c>
       <c r="K138" t="inlineStr"/>
@@ -7440,47 +7452,47 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
+          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>WH1qla3MXNKCoG4k6pYz</t>
+          <t>jZFKuWgNQEGaT1W2xXVd</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2025-01-31T15:03:55.645Z</t>
+          <t>2025-01-30T13:53:26.466Z</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>oBkRpwCvDtmr96GNDKt0</t>
+          <t>lmdDo4sVVlQNfMLaT1Jw</t>
         </is>
       </c>
       <c r="K139" t="inlineStr"/>
@@ -7497,7 +7509,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -7507,32 +7519,28 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
+          <t>50f7c289-6a7d-4400-9f4f-32c59562faec</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>SZG3jkTu4VacqOdBq11X</t>
+          <t>wNmqgdMKte48MR0lSs8V</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>2025-01-31T15:00:38.906Z</t>
-        </is>
-      </c>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr">
         <is>
-          <t>oZioTaayduiReYnRRvQQ</t>
+          <t>m4FswNEJNTsojZRsHyXo</t>
         </is>
       </c>
       <c r="K140" t="inlineStr"/>
@@ -7544,51 +7552,51 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>a7037b14-2e6d-4f7d-bac8-ed02d7df5329</t>
+          <t>012ff74e-4af5-40e3-ba31-538f3adcc33d</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>3oCaNI7N11UjdwsgwiY6</t>
+          <t>QEBs5TlLCAooCeKAZbVP</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr"/>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>2025-01-31T15:17:40.572Z</t>
+        </is>
+      </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>oaxzMeJDa04t3NlPnZzJ</t>
-        </is>
-      </c>
-      <c r="K141" t="n">
-        <v>3</v>
-      </c>
-      <c r="L141" t="n">
-        <v>3</v>
-      </c>
+          <t>mMOx3PLbU63MKtpWN57c</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7596,7 +7604,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7606,7 +7614,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7616,27 +7624,27 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>C8gzQBMRYvKlB2O8u1NL</t>
+          <t>X54BtfxmEU4PEj2pXfs0</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2025-01-31T15:10:38.152Z</t>
+          <t>2025-01-31T12:35:04.502Z</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>owKeAChY9ZmcxRjpoEbM</t>
+          <t>mw2ZckSiK5c2SIzvM3sB</t>
         </is>
       </c>
       <c r="K142" t="inlineStr"/>
@@ -7648,7 +7656,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7673,7 +7681,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>I4utvQl0FYJBdRckHawK</t>
+          <t>TGxXV9xxnEF2clXJkUH1</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7683,12 +7691,12 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2025-01-31T14:56:02.239Z</t>
+          <t>2025-01-31T15:14:13.695Z</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>p9HFX0VPGQKkJ1mfzFxj</t>
+          <t>nHQ2iRV7d4qUhv7bx6kk</t>
         </is>
       </c>
       <c r="K143" t="inlineStr"/>
@@ -7700,12 +7708,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -7720,23 +7728,23 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+          <t>450cd38d-27d8-4b1e-b397-f6aa0769f389</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>AXCAW0Sac9plQWEH2pi4</t>
+          <t>0bIsWmiOeRXEyKdMrHB1</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>pL663xq2pmI7OwqkQS6N</t>
+          <t>nadf2hKw5G0sXVhtRBXb</t>
         </is>
       </c>
       <c r="K144" t="inlineStr"/>
@@ -7748,12 +7756,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -7763,36 +7771,32 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>a7037b14-2e6d-4f7d-bac8-ed02d7df5329</t>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>9cfqp5ZF6aZKsFMPR82A</t>
+          <t>Yf4W2hBsBJLunivtbe0p</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>phxct5YusNvHcQksdyOb</t>
-        </is>
-      </c>
-      <c r="K145" t="n">
-        <v>2</v>
-      </c>
-      <c r="L145" t="n">
-        <v>3</v>
-      </c>
+          <t>nfpbc9bLg6eG4214OzKL</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -7800,7 +7804,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7810,7 +7814,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7820,23 +7824,27 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>4F14IrWf2S6Uwzm7ajl4</t>
+          <t>vrZW6b8SD7cvJxYhlyHe</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr"/>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>2025-01-31T15:06:14.299Z</t>
+        </is>
+      </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>pwT3YbMpZPRMWIztNxj4</t>
+          <t>nk7PCAyg808iJwqIN0kU</t>
         </is>
       </c>
       <c r="K146" t="inlineStr"/>
@@ -7848,7 +7856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7858,41 +7866,41 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>a7037b14-2e6d-4f7d-bac8-ed02d7df5329</t>
+          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>1DMpSYJYgWlOR38X57hm</t>
+          <t>WH1qla3MXNKCoG4k6pYz</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr"/>
+          <t>mip_splatting</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>2025-01-31T15:03:55.645Z</t>
+        </is>
+      </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>q2CAvgjDljuJAVBSUdMW</t>
-        </is>
-      </c>
-      <c r="K147" t="n">
-        <v>2</v>
-      </c>
-      <c r="L147" t="n">
-        <v>3</v>
-      </c>
+          <t>oBkRpwCvDtmr96GNDKt0</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -7900,17 +7908,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -7920,27 +7928,27 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>lu9ZRFRIuRRYju3tjTgr</t>
+          <t>SZG3jkTu4VacqOdBq11X</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2025-01-31T10:00:47.167Z</t>
+          <t>2025-01-31T15:00:38.906Z</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>q8NDD2tzYCIBAlDmIGrG</t>
+          <t>oZioTaayduiReYnRRvQQ</t>
         </is>
       </c>
       <c r="K148" t="inlineStr"/>
@@ -7952,32 +7960,32 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>a7037b14-2e6d-4f7d-bac8-ed02d7df5329</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>0uSshiYpzXHdIn1okZsk</t>
+          <t>3oCaNI7N11UjdwsgwiY6</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7985,18 +7993,18 @@
           <t>eagles</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:50:40.579Z</t>
-        </is>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>qLYX3KeDxkKG0ctfRW8u</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+          <t>oaxzMeJDa04t3NlPnZzJ</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>3</v>
+      </c>
+      <c r="L149" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -8004,17 +8012,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8024,31 +8032,31 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>e5de31f2-fc40-4062-9135-3aba73149106</t>
+          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>0bIsWmiOeRXEyKdMrHB1</t>
+          <t>C8gzQBMRYvKlB2O8u1NL</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr"/>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>2025-01-31T15:10:38.152Z</t>
+        </is>
+      </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>qM69gpRHSppZgpOisLcr</t>
-        </is>
-      </c>
-      <c r="K150" t="n">
-        <v>5</v>
-      </c>
-      <c r="L150" t="n">
-        <v>5</v>
-      </c>
+          <t>owKeAChY9ZmcxRjpoEbM</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -8056,43 +8064,47 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>f7c2df7a-579c-4030-a38b-8e21d19963f5</t>
+          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>RZWUvL0VhZOyUcUeGEVN</t>
+          <t>I4utvQl0FYJBdRckHawK</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr"/>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>2025-01-31T14:56:02.239Z</t>
+        </is>
+      </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>qWclNG6sPFxHV00fvDmY</t>
+          <t>p9HFX0VPGQKkJ1mfzFxj</t>
         </is>
       </c>
       <c r="K151" t="inlineStr"/>
@@ -8109,12 +8121,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8124,27 +8136,23 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
+          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>SWeqswWZyNoftEu5CZUT</t>
+          <t>AXCAW0Sac9plQWEH2pi4</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>2025-01-31T15:08:58.339Z</t>
-        </is>
-      </c>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>qzXsrIxDAkhRitBYkSnU</t>
+          <t>pL663xq2pmI7OwqkQS6N</t>
         </is>
       </c>
       <c r="K152" t="inlineStr"/>
@@ -8156,47 +8164,51 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
+          <t>geo_gaussian</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>truck</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>a7037b14-2e6d-4f7d-bac8-ed02d7df5329</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>9cfqp5ZF6aZKsFMPR82A</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
           <t>gaussian_pro</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>second</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>truck</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>f7c2df7a-579c-4030-a38b-8e21d19963f5</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>9kLF0x1etY4N8dpAzZ6z</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>mini_splatting</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr">
         <is>
-          <t>rHCnUVAVZbV2fMqzzAXD</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+          <t>phxct5YusNvHcQksdyOb</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>2</v>
+      </c>
+      <c r="L153" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -8204,47 +8216,43 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
+          <t>mip_splatting</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>neither</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>stump</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0a665c40-da19-49db-ad71-f87e7af9c0d8</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>4F14IrWf2S6Uwzm7ajl4</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
           <t>eagles</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>neither</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>truck</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>RBpxGywp1VWPYDuyRPyU</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>mini_splatting</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>2025-01-31T12:40:09.243Z</t>
-        </is>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr">
         <is>
-          <t>rwkNNtoUXUS98xhRHdku</t>
+          <t>pwT3YbMpZPRMWIztNxj4</t>
         </is>
       </c>
       <c r="K154" t="inlineStr"/>
@@ -8256,47 +8264,51 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+          <t>a7037b14-2e6d-4f7d-bac8-ed02d7df5329</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>sBV7Vhs5rYEu1Km8OMta</t>
+          <t>1DMpSYJYgWlOR38X57hm</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>s2WC05qIRPXr7mWVcMBJ</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+          <t>q2CAvgjDljuJAVBSUdMW</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>2</v>
+      </c>
+      <c r="L155" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -8304,17 +8316,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8329,7 +8341,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>sSTYfxUCdhqlvd02785r</t>
+          <t>lu9ZRFRIuRRYju3tjTgr</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -8339,12 +8351,12 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2025-01-31T09:48:37.440Z</t>
+          <t>2025-01-31T10:00:47.167Z</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>sEE028d3SBcSEkZPfwFc</t>
+          <t>q8NDD2tzYCIBAlDmIGrG</t>
         </is>
       </c>
       <c r="K156" t="inlineStr"/>
@@ -8356,47 +8368,47 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
+          <t>mip_splatting</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>truck</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0uSshiYpzXHdIn1okZsk</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
           <t>eagles</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>stump</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>CtKVlPJTPA7w6S4L3fKY</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>mcmc</t>
-        </is>
-      </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2025-01-30T16:15:10.845Z</t>
+          <t>2025-01-31T09:50:40.579Z</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>sITToa9QvCFT9CnWZ9xy</t>
+          <t>qLYX3KeDxkKG0ctfRW8u</t>
         </is>
       </c>
       <c r="K157" t="inlineStr"/>
@@ -8413,27 +8425,27 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>450cd38d-27d8-4b1e-b397-f6aa0769f389</t>
+          <t>e5de31f2-fc40-4062-9135-3aba73149106</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>ZiahTJzG9WL68LnKtg2s</t>
+          <t>0bIsWmiOeRXEyKdMrHB1</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -8444,11 +8456,15 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>ucXzcs3Ek9SP08O8CLjk</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+          <t>qM69gpRHSppZgpOisLcr</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>5</v>
+      </c>
+      <c r="L158" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -8456,7 +8472,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -8471,32 +8487,28 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>room</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>f7c2df7a-579c-4030-a38b-8e21d19963f5</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>4DabfkFLBojKxKol8UQf</t>
+          <t>RZWUvL0VhZOyUcUeGEVN</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:51:53.498Z</t>
-        </is>
-      </c>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>ugTLDhZDIEXqQGFVyESQ</t>
+          <t>qWclNG6sPFxHV00fvDmY</t>
         </is>
       </c>
       <c r="K159" t="inlineStr"/>
@@ -8508,47 +8520,47 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
+          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>tRFe7pAvuafgEf19DHbB</t>
+          <t>SWeqswWZyNoftEu5CZUT</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2025-01-30T16:16:02.364Z</t>
+          <t>2025-01-31T15:08:58.339Z</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>un97gpZjSS63gTlzTks3</t>
+          <t>qzXsrIxDAkhRitBYkSnU</t>
         </is>
       </c>
       <c r="K160" t="inlineStr"/>
@@ -8560,7 +8572,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8570,7 +8582,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8580,27 +8592,23 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>f7c2df7a-579c-4030-a38b-8e21d19963f5</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>xokGmEGRC6jlGHRcOllW</t>
+          <t>9kLF0x1etY4N8dpAzZ6z</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>2025-01-31T09:46:52.387Z</t>
-        </is>
-      </c>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>wM3wYcUKRs0mLPaYMXhg</t>
+          <t>rHCnUVAVZbV2fMqzzAXD</t>
         </is>
       </c>
       <c r="K161" t="inlineStr"/>
@@ -8612,7 +8620,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8622,37 +8630,37 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>LLtZRIvyJGg03WcunHyY</t>
+          <t>RBpxGywp1VWPYDuyRPyU</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2025-01-31T14:58:50.236Z</t>
+          <t>2025-01-31T12:40:09.243Z</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>waCATg3ckEOQ7dGw6UPu</t>
+          <t>rwkNNtoUXUS98xhRHdku</t>
         </is>
       </c>
       <c r="K162" t="inlineStr"/>
@@ -8664,47 +8672,43 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>mini_splatting</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>AXCAW0Sac9plQWEH2pi4</t>
+          <t>sBV7Vhs5rYEu1Km8OMta</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>2025-01-31T10:00:34.120Z</t>
-        </is>
-      </c>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>wmeHxpqSre3bMDGeyr1T</t>
+          <t>s2WC05qIRPXr7mWVcMBJ</t>
         </is>
       </c>
       <c r="K163" t="inlineStr"/>
@@ -8716,47 +8720,47 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>xh9segHQ5UyJB9dih4b0</t>
+          <t>sSTYfxUCdhqlvd02785r</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>default</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2025-01-31T12:39:27.132Z</t>
+          <t>2025-01-31T09:48:37.440Z</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>wvhEHB6eb3E2ZELkEi2B</t>
+          <t>sEE028d3SBcSEkZPfwFc</t>
         </is>
       </c>
       <c r="K164" t="inlineStr"/>
@@ -8768,12 +8772,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -8783,32 +8787,32 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
+          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>h1a3idESSj66lxo0i8AY</t>
+          <t>CtKVlPJTPA7w6S4L3fKY</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2025-01-31T15:02:12.082Z</t>
+          <t>2025-01-30T16:15:10.845Z</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>x2lHexze7VfdZekl9nRb</t>
+          <t>sITToa9QvCFT9CnWZ9xy</t>
         </is>
       </c>
       <c r="K165" t="inlineStr"/>
@@ -8820,7 +8824,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8835,32 +8839,28 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>stump</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
+          <t>450cd38d-27d8-4b1e-b397-f6aa0769f389</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>jgtsjYT5LQZA84zGKnCH</t>
+          <t>ZiahTJzG9WL68LnKtg2s</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>mcmc</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>2025-01-31T15:10:07.283Z</t>
-        </is>
-      </c>
+          <t>eagles</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>xMze6V6YsLT0hGLtuB0k</t>
+          <t>ucXzcs3Ek9SP08O8CLjk</t>
         </is>
       </c>
       <c r="K166" t="inlineStr"/>
@@ -8872,12 +8872,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -8892,23 +8892,27 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>tqYjhS9OxgqXk6wDoVTN</t>
+          <t>4DabfkFLBojKxKol8UQf</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr"/>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:51:53.498Z</t>
+        </is>
+      </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>yIaUFKtxFaABzSfSGjzk</t>
+          <t>ugTLDhZDIEXqQGFVyESQ</t>
         </is>
       </c>
       <c r="K167" t="inlineStr"/>
@@ -8920,17 +8924,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>gaussian_pro</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>second</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -8940,23 +8944,27 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+          <t>4dc54225-0f2f-40ce-8ed5-1b18cb929d29</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>STM4xI9X7gXL7C5l0YGV</t>
+          <t>tRFe7pAvuafgEf19DHbB</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr"/>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>2025-01-30T16:16:02.364Z</t>
+        </is>
+      </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>ylDNiU0dLUB75d4zaJRr</t>
+          <t>un97gpZjSS63gTlzTks3</t>
         </is>
       </c>
       <c r="K168" t="inlineStr"/>
@@ -8968,22 +8976,22 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>eagles</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>first</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8993,22 +9001,22 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>sGEqUwHWXm4uNV50fIul</t>
+          <t>xokGmEGRC6jlGHRcOllW</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>mcmc</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2025-01-31T09:56:11.080Z</t>
+          <t>2025-01-31T09:46:52.387Z</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>zW21aznSQL1XJItViIUA</t>
+          <t>wM3wYcUKRs0mLPaYMXhg</t>
         </is>
       </c>
       <c r="K169" t="inlineStr"/>
@@ -9020,43 +9028,47 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
+          <t>geo_gaussian</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>LLtZRIvyJGg03WcunHyY</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
           <t>mip_splatting</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>room</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>o285r0HU6gaGJge3A5Ll</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr"/>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>2025-01-31T14:58:50.236Z</t>
+        </is>
+      </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>zXXodDaI2Gb3YSCMmt9N</t>
+          <t>waCATg3ckEOQ7dGw6UPu</t>
         </is>
       </c>
       <c r="K170" t="inlineStr"/>
@@ -9068,12 +9080,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -9083,36 +9095,36 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>stump</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>e2e13763-bad1-40d3-9c2c-52c7e9d12d9f</t>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2yLwlpCr3EttnrWODivG</t>
+          <t>AXCAW0Sac9plQWEH2pi4</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>eagles</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr"/>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>2025-01-31T10:00:34.120Z</t>
+        </is>
+      </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>zduB5CFox0wV2nvJUVeq</t>
-        </is>
-      </c>
-      <c r="K171" t="n">
-        <v>4</v>
-      </c>
-      <c r="L171" t="n">
-        <v>3</v>
-      </c>
+          <t>wmeHxpqSre3bMDGeyr1T</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -9120,7 +9132,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>geo_gaussian</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -9145,26 +9157,430 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2kRptcQx5PSo54pmymCi</t>
+          <t>xh9segHQ5UyJB9dih4b0</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>mip_splatting</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2025-01-31T12:27:09.372Z</t>
+          <t>2025-01-31T12:39:27.132Z</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>zkB9xmFRfhyqLZpQFk6W</t>
+          <t>wvhEHB6eb3E2ZELkEi2B</t>
         </is>
       </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>geo_gaussian</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>h1a3idESSj66lxo0i8AY</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>2025-01-31T15:02:12.082Z</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>x2lHexze7VfdZekl9nRb</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>ba42e8c9-68c7-4fcf-af39-5e18ca1aa5bb</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>jgtsjYT5LQZA84zGKnCH</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>mcmc</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>2025-01-31T15:10:07.283Z</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>xMze6V6YsLT0hGLtuB0k</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>geo_gaussian</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>stump</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>tqYjhS9OxgqXk6wDoVTN</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>gaussian_pro</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>yIaUFKtxFaABzSfSGjzk</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>mip_splatting</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>neither</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>STM4xI9X7gXL7C5l0YGV</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>ylDNiU0dLUB75d4zaJRr</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>geo_gaussian</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>neither</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>stump</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>d8033277-b91a-4a77-8a57-77b042e1497d</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>sGEqUwHWXm4uNV50fIul</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>2025-01-31T09:56:11.080Z</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>zW21aznSQL1XJItViIUA</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>mip_splatting</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3b6c78e7-b0e6-4c75-a3f3-e1dccc7c9361</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>o285r0HU6gaGJge3A5Ll</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>eagles</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>zXXodDaI2Gb3YSCMmt9N</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>gaussian_pro</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>stump</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>e2e13763-bad1-40d3-9c2c-52c7e9d12d9f</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>2yLwlpCr3EttnrWODivG</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>eagles</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>zduB5CFox0wV2nvJUVeq</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>4</v>
+      </c>
+      <c r="L179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>eagles</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>stump</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>4ade5517-3297-49b4-a1e7-a76ae38a8327</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>2kRptcQx5PSo54pmymCi</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>mini_splatting</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>2025-01-31T12:27:09.372Z</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>zkB9xmFRfhyqLZpQFk6W</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
